--- a/00_파일/Billing.xlsx
+++ b/00_파일/Billing.xlsx
@@ -17,8 +17,6 @@
     <x:sheet name="Reference" sheetId="5" r:id="rId2"/>
     <x:sheet name="Filter" sheetId="6" r:id="rId3"/>
     <x:sheet name="OriginalFilter" sheetId="7" r:id="rId7"/>
-    <x:sheet name="dtRef" sheetId="8" r:id="rId8"/>
-    <x:sheet name="dtTotal" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -930,153 +928,4 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B13"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
 </file>
--- a/00_파일/Billing.xlsx
+++ b/00_파일/Billing.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA수업\00_파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66347CB8-5DF4-4D4A-BCEC-9D7BCF2D1F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8A06C-4831-4593-A430-9726BAF59CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Amount" sheetId="2" r:id="rId1"/>
-    <x:sheet name="Reference" sheetId="5" r:id="rId2"/>
-    <x:sheet name="Filter" sheetId="6" r:id="rId3"/>
-    <x:sheet name="OriginalFilter" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Filter" sheetId="6" r:id="rId1"/>
+    <x:sheet name="Filter2" sheetId="8" r:id="rId2"/>
+    <x:sheet name="Reference" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Total" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -24,141 +24,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <x:si>
+    <x:t>Reference No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268094663036</x:t>
+  </x:si>
   <x:si>
     <x:t>$228.71</x:t>
   </x:si>
   <x:si>
+    <x:t>466092468148</x:t>
+  </x:si>
+  <x:si>
     <x:t>$497.27</x:t>
   </x:si>
   <x:si>
+    <x:t>668079302272</x:t>
+  </x:si>
+  <x:si>
     <x:t>$359.11</x:t>
   </x:si>
   <x:si>
+    <x:t>668079303095</x:t>
+  </x:si>
+  <x:si>
     <x:t>$784.44</x:t>
   </x:si>
   <x:si>
+    <x:t>668079306929</x:t>
+  </x:si>
+  <x:si>
     <x:t>$392.70</x:t>
   </x:si>
   <x:si>
+    <x:t>668079308852</x:t>
+  </x:si>
+  <x:si>
     <x:t>$404.66</x:t>
   </x:si>
   <x:si>
+    <x:t>668079309127</x:t>
+  </x:si>
+  <x:si>
     <x:t>$366.23</x:t>
   </x:si>
   <x:si>
+    <x:t>668079315540</x:t>
+  </x:si>
+  <x:si>
     <x:t>$688.79</x:t>
   </x:si>
   <x:si>
+    <x:t>466093064016</x:t>
+  </x:si>
+  <x:si>
     <x:t>$322.89</x:t>
   </x:si>
   <x:si>
+    <x:t>466093093536</x:t>
+  </x:si>
+  <x:si>
     <x:t>$392.09</x:t>
   </x:si>
   <x:si>
+    <x:t>466094683295</x:t>
+  </x:si>
+  <x:si>
     <x:t>$610.37</x:t>
   </x:si>
   <x:si>
+    <x:t>466094685143</x:t>
+  </x:si>
+  <x:si>
     <x:t>$399.92</x:t>
   </x:si>
   <x:si>
+    <x:t>466094697544</x:t>
+  </x:si>
+  <x:si>
     <x:t>$135.34</x:t>
   </x:si>
   <x:si>
+    <x:t>466013390593</x:t>
+  </x:si>
+  <x:si>
     <x:t>$5,582.52</x:t>
   </x:si>
   <x:si>
     <x:t>$0.00</x:t>
   </x:si>
   <x:si>
-    <x:t>268094663036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466092468148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079302272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079303095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079306929</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079308852</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079309127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079315540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466093064016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466093093536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466094683295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466094685143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466094697544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466013390593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reference No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268094663036          PAYMENT             000               $228.71      001    WBC2006032373259164    20060323  12:45:38   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466092468148          PAYMENT             000               $497.27      001    WBC2006032344314364    20060323  21:25:20   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079302272          PAYMENT             000               $359.11      001    NAB200603223221111777  20060322  22:11:17   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079303095          PAYMENT             000               $784.44      201    CBA200603220030014269  20060322  20:16:32   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079306929          PAYMENT             000               $392.70      001    WBC2006032340211234    20060323  21:23:49   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079308852          PAYMENT             000               $404.66      201    NAB200603231081055475  20060323  08:10:54   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079309127          PAYMENT             000               $366.23      001    MEB20060310172012655   20060310  14:03:00   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668079315540          PAYMENT             000               $688.79      101    ANZ20060323419429      20060323  03:45:04   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466093064016          PAYMENT             000               $322.89      001    NAB200603233121822838  20060323  12:18:28   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466094683295          PAYMENT             000               $392.09      101    WBC2006032306031054    20060323  07:48:27   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466094685143          PAYMENT             000               $610.37      001    MBL2006032301932165    20060323  10:26:20   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466094697544          PAYMENT             000               $399.92      001    WBC2006032324282224    20060323  14:44:19   20060323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>466013390593          PAYMENT             000               $135.34      001    MEB200603225837017126  20060322  20:36:00   20060322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMOUNT OF PAYMENTS                   $5,582.52</x:t>
+    <x:t>228.71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>497.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>359.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>784.44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>392.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>404.66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>688.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>392.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>610.37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399.92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,582.52</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -504,91 +507,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A15"/>
+  <x:dimension ref="A1:B16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="J11" sqref="J11"/>
+      <x:selection activeCell="F24" sqref="F24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <x:c r="B16" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -602,232 +655,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0400-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A14"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="H12" sqref="H12"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:phoneticPr fontId="1" type="noConversion"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B16"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <x:c r="B16" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -840,12 +680,144 @@
 </x:worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B13"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A14"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -853,72 +825,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
-      <x:c r="A8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
-      <x:c r="A9" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1">
-      <x:c r="A10" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1">
-      <x:c r="A11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1">
-      <x:c r="A14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
